--- a/Data_Refinitiv.xlsx
+++ b/Data_Refinitiv.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c22f1ca899110f3/Dokumente/GitHub/AQM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_96B880A30C8EEBF4FFFC9890E20042F2E65033EC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4CAD32B1-8D01-4411-9FBC-A4DECD6D8DC1}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -58,11 +64,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,15 +128,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -172,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,9 +218,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,6 +270,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,14 +463,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -487,7 +540,7 @@
         <v>56.25</v>
       </c>
       <c r="I2">
-        <v>2.503</v>
+        <v>2.5030000000000001</v>
       </c>
       <c r="J2">
         <v>210</v>
@@ -499,13 +552,13 @@
         <v>1585.5</v>
       </c>
       <c r="M2">
-        <v>33.233</v>
+        <v>33.232999999999997</v>
       </c>
       <c r="N2">
         <v>666</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -531,7 +584,7 @@
         <v>59.38</v>
       </c>
       <c r="I3">
-        <v>2.616</v>
+        <v>2.6160000000000001</v>
       </c>
       <c r="J3">
         <v>190.55</v>
@@ -543,13 +596,13 @@
         <v>1691.1</v>
       </c>
       <c r="M3">
-        <v>34.583</v>
+        <v>34.582999999999998</v>
       </c>
       <c r="N3">
         <v>664.25</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -575,7 +628,7 @@
         <v>61.5</v>
       </c>
       <c r="I4">
-        <v>2.126</v>
+        <v>2.1259999999999999</v>
       </c>
       <c r="J4">
         <v>164.5</v>
@@ -587,13 +640,13 @@
         <v>1638.3</v>
       </c>
       <c r="M4">
-        <v>32.469</v>
+        <v>32.469000000000001</v>
       </c>
       <c r="N4">
         <v>660.75</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -619,7 +672,7 @@
         <v>57.87</v>
       </c>
       <c r="I5">
-        <v>2.285</v>
+        <v>2.2850000000000001</v>
       </c>
       <c r="J5">
         <v>140.85</v>
@@ -637,7 +690,7 @@
         <v>647.75</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -663,7 +716,7 @@
         <v>53.98</v>
       </c>
       <c r="I6">
-        <v>2.422</v>
+        <v>2.4220000000000002</v>
       </c>
       <c r="J6">
         <v>112.05</v>
@@ -681,7 +734,7 @@
         <v>643.75</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -689,7 +742,7 @@
         <v>41090</v>
       </c>
       <c r="C7">
-        <v>84.95999999999999</v>
+        <v>84.96</v>
       </c>
       <c r="D7">
         <v>672.5</v>
@@ -707,13 +760,13 @@
         <v>55.57</v>
       </c>
       <c r="I7">
-        <v>2.824</v>
+        <v>2.8239999999999998</v>
       </c>
       <c r="J7">
         <v>122.65</v>
       </c>
       <c r="K7">
-        <v>583.05</v>
+        <v>583.04999999999995</v>
       </c>
       <c r="L7">
         <v>1449.1</v>
@@ -725,7 +778,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,7 +804,7 @@
         <v>54.69</v>
       </c>
       <c r="I8">
-        <v>3.209</v>
+        <v>3.2090000000000001</v>
       </c>
       <c r="J8">
         <v>109.9</v>
@@ -769,7 +822,7 @@
         <v>888.25</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -795,13 +848,13 @@
         <v>58.91</v>
       </c>
       <c r="I9">
-        <v>2.799</v>
+        <v>2.7989999999999999</v>
       </c>
       <c r="J9">
         <v>131.9</v>
       </c>
       <c r="K9">
-        <v>627.95</v>
+        <v>627.95000000000005</v>
       </c>
       <c r="L9">
         <v>1536.3</v>
@@ -813,7 +866,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -851,13 +904,13 @@
         <v>1665.3</v>
       </c>
       <c r="M10">
-        <v>34.517</v>
+        <v>34.517000000000003</v>
       </c>
       <c r="N10">
         <v>902.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -865,7 +918,7 @@
         <v>41213</v>
       </c>
       <c r="C11">
-        <v>86.23999999999999</v>
+        <v>86.24</v>
       </c>
       <c r="D11">
         <v>755.75</v>
@@ -883,7 +936,7 @@
         <v>66.34</v>
       </c>
       <c r="I11">
-        <v>3.692</v>
+        <v>3.6920000000000002</v>
       </c>
       <c r="J11">
         <v>106.25</v>
@@ -895,13 +948,13 @@
         <v>1576</v>
       </c>
       <c r="M11">
-        <v>32.288</v>
+        <v>32.287999999999997</v>
       </c>
       <c r="N11">
         <v>864.5</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -921,13 +974,13 @@
         <v>111.23</v>
       </c>
       <c r="G12">
-        <v>126.725</v>
+        <v>126.72499999999999</v>
       </c>
       <c r="H12">
         <v>67.66</v>
       </c>
       <c r="I12">
-        <v>3.561</v>
+        <v>3.5609999999999999</v>
       </c>
       <c r="J12">
         <v>123.25</v>
@@ -939,13 +992,13 @@
         <v>1603.1</v>
       </c>
       <c r="M12">
-        <v>33.204</v>
+        <v>33.204000000000001</v>
       </c>
       <c r="N12">
         <v>844.75</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -953,7 +1006,7 @@
         <v>41274</v>
       </c>
       <c r="C13">
-        <v>91.81999999999999</v>
+        <v>91.82</v>
       </c>
       <c r="D13">
         <v>698.25</v>
@@ -968,7 +1021,7 @@
         <v>129.9</v>
       </c>
       <c r="H13">
-        <v>64.51000000000001</v>
+        <v>64.510000000000005</v>
       </c>
       <c r="I13">
         <v>3.351</v>
@@ -983,13 +1036,13 @@
         <v>1538.7</v>
       </c>
       <c r="M13">
-        <v>30.173</v>
+        <v>30.172999999999998</v>
       </c>
       <c r="N13">
         <v>778</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,7 +1050,7 @@
         <v>41305</v>
       </c>
       <c r="C14">
-        <v>97.48999999999999</v>
+        <v>97.49</v>
       </c>
       <c r="D14">
         <v>740.5</v>
@@ -1027,13 +1080,13 @@
         <v>1673.9</v>
       </c>
       <c r="M14">
-        <v>31.335</v>
+        <v>31.335000000000001</v>
       </c>
       <c r="N14">
         <v>779.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1059,7 +1112,7 @@
         <v>67.33</v>
       </c>
       <c r="I15">
-        <v>3.486</v>
+        <v>3.4860000000000002</v>
       </c>
       <c r="J15">
         <v>127.15</v>
@@ -1077,7 +1130,7 @@
         <v>707.75</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1115,13 +1168,13 @@
         <v>1571.2</v>
       </c>
       <c r="M16">
-        <v>28.292</v>
+        <v>28.292000000000002</v>
       </c>
       <c r="N16">
         <v>687.75</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,7 +1182,7 @@
         <v>41394</v>
       </c>
       <c r="C17">
-        <v>93.45999999999999</v>
+        <v>93.46</v>
       </c>
       <c r="D17">
         <v>683.25</v>
@@ -1159,13 +1212,13 @@
         <v>1505.4</v>
       </c>
       <c r="M17">
-        <v>24.144</v>
+        <v>24.143999999999998</v>
       </c>
       <c r="N17">
         <v>721.75</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1203,13 +1256,13 @@
         <v>1460.6</v>
       </c>
       <c r="M18">
-        <v>22.228</v>
+        <v>22.228000000000002</v>
       </c>
       <c r="N18">
         <v>705.5</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1235,7 +1288,7 @@
         <v>65.02</v>
       </c>
       <c r="I19">
-        <v>3.565</v>
+        <v>3.5649999999999999</v>
       </c>
       <c r="J19">
         <v>129.9</v>
@@ -1247,13 +1300,13 @@
         <v>1336.9</v>
       </c>
       <c r="M19">
-        <v>19.451</v>
+        <v>19.451000000000001</v>
       </c>
       <c r="N19">
         <v>648.5</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,7 +1332,7 @@
         <v>66.27</v>
       </c>
       <c r="I20">
-        <v>3.446</v>
+        <v>3.4460000000000002</v>
       </c>
       <c r="J20">
         <v>143.9</v>
@@ -1291,13 +1344,13 @@
         <v>1428.4</v>
       </c>
       <c r="M20">
-        <v>19.617</v>
+        <v>19.617000000000001</v>
       </c>
       <c r="N20">
         <v>664.25</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,7 +1379,7 @@
         <v>3.581</v>
       </c>
       <c r="J21">
-        <v>136.95</v>
+        <v>136.94999999999999</v>
       </c>
       <c r="K21">
         <v>722.1</v>
@@ -1335,13 +1388,13 @@
         <v>1526.2</v>
       </c>
       <c r="M21">
-        <v>23.463</v>
+        <v>23.463000000000001</v>
       </c>
       <c r="N21">
         <v>643.25</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1370,7 +1423,7 @@
         <v>3.56</v>
       </c>
       <c r="J22">
-        <v>131.3</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="K22">
         <v>726.15</v>
@@ -1379,13 +1432,13 @@
         <v>1408.1</v>
       </c>
       <c r="M22">
-        <v>21.656</v>
+        <v>21.655999999999999</v>
       </c>
       <c r="N22">
         <v>678.5</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1423,13 +1476,13 @@
         <v>1445.9</v>
       </c>
       <c r="M23">
-        <v>21.832</v>
+        <v>21.832000000000001</v>
       </c>
       <c r="N23">
         <v>667.5</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1443,22 +1496,22 @@
         <v>415.25</v>
       </c>
       <c r="E24">
-        <v>1250.6</v>
+        <v>1250.5999999999999</v>
       </c>
       <c r="F24">
         <v>109.69</v>
       </c>
       <c r="G24">
-        <v>133.475</v>
+        <v>133.47499999999999</v>
       </c>
       <c r="H24">
         <v>71.59</v>
       </c>
       <c r="I24">
-        <v>3.954</v>
+        <v>3.9540000000000002</v>
       </c>
       <c r="J24">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="K24">
         <v>718</v>
@@ -1467,13 +1520,13 @@
         <v>1367.9</v>
       </c>
       <c r="M24">
-        <v>19.981</v>
+        <v>19.981000000000002</v>
       </c>
       <c r="N24">
         <v>655</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1487,7 +1540,7 @@
         <v>422</v>
       </c>
       <c r="E25">
-        <v>1201.9</v>
+        <v>1201.9000000000001</v>
       </c>
       <c r="F25">
         <v>110.8</v>
@@ -1499,10 +1552,10 @@
         <v>68.91</v>
       </c>
       <c r="I25">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J25">
-        <v>136.45</v>
+        <v>136.44999999999999</v>
       </c>
       <c r="K25">
         <v>717.4</v>
@@ -1511,13 +1564,13 @@
         <v>1371.1</v>
       </c>
       <c r="M25">
-        <v>19.339</v>
+        <v>19.338999999999999</v>
       </c>
       <c r="N25">
         <v>605.25</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1525,28 +1578,28 @@
         <v>41670</v>
       </c>
       <c r="C26">
-        <v>97.48999999999999</v>
+        <v>97.49</v>
       </c>
       <c r="D26">
         <v>434</v>
       </c>
       <c r="E26">
-        <v>1240.1</v>
+        <v>1240.0999999999999</v>
       </c>
       <c r="F26">
         <v>106.4</v>
       </c>
       <c r="G26">
-        <v>141.675</v>
+        <v>141.67500000000001</v>
       </c>
       <c r="H26">
         <v>61.12</v>
       </c>
       <c r="I26">
-        <v>4.943</v>
+        <v>4.9429999999999996</v>
       </c>
       <c r="J26">
-        <v>142.55</v>
+        <v>142.55000000000001</v>
       </c>
       <c r="K26">
         <v>703</v>
@@ -1561,7 +1614,7 @@
         <v>555.75</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1581,7 +1634,7 @@
         <v>109.07</v>
       </c>
       <c r="G27">
-        <v>151.95</v>
+        <v>151.94999999999999</v>
       </c>
       <c r="H27">
         <v>56.15</v>
@@ -1599,13 +1652,13 @@
         <v>1446.2</v>
       </c>
       <c r="M27">
-        <v>21.204</v>
+        <v>21.204000000000001</v>
       </c>
       <c r="N27">
         <v>599</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1619,7 +1672,7 @@
         <v>502</v>
       </c>
       <c r="E28">
-        <v>1283.4</v>
+        <v>1283.4000000000001</v>
       </c>
       <c r="F28">
         <v>107.76</v>
@@ -1631,7 +1684,7 @@
         <v>51.27</v>
       </c>
       <c r="I28">
-        <v>4.371</v>
+        <v>4.3710000000000004</v>
       </c>
       <c r="J28">
         <v>155</v>
@@ -1643,13 +1696,13 @@
         <v>1418.5</v>
       </c>
       <c r="M28">
-        <v>19.734</v>
+        <v>19.734000000000002</v>
       </c>
       <c r="N28">
         <v>697.25</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1657,25 +1710,25 @@
         <v>41759</v>
       </c>
       <c r="C29">
-        <v>99.73999999999999</v>
+        <v>99.74</v>
       </c>
       <c r="D29">
         <v>514</v>
       </c>
       <c r="E29">
-        <v>1295.6</v>
+        <v>1295.5999999999999</v>
       </c>
       <c r="F29">
         <v>108.07</v>
       </c>
       <c r="G29">
-        <v>145.825</v>
+        <v>145.82499999999999</v>
       </c>
       <c r="H29">
         <v>46.27</v>
       </c>
       <c r="I29">
-        <v>4.815</v>
+        <v>4.8150000000000004</v>
       </c>
       <c r="J29">
         <v>154.6</v>
@@ -1693,7 +1746,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1707,19 +1760,19 @@
         <v>465.75</v>
       </c>
       <c r="E30">
-        <v>1245.6</v>
+        <v>1245.5999999999999</v>
       </c>
       <c r="F30">
         <v>109.41</v>
       </c>
       <c r="G30">
-        <v>137.8</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="H30">
         <v>44.14</v>
       </c>
       <c r="I30">
-        <v>4.542</v>
+        <v>4.5419999999999998</v>
       </c>
       <c r="J30">
         <v>159.4</v>
@@ -1731,13 +1784,13 @@
         <v>1454.7</v>
       </c>
       <c r="M30">
-        <v>18.653</v>
+        <v>18.652999999999999</v>
       </c>
       <c r="N30">
         <v>627.25</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1763,10 +1816,10 @@
         <v>39.6</v>
       </c>
       <c r="I31">
-        <v>4.461</v>
+        <v>4.4610000000000003</v>
       </c>
       <c r="J31">
-        <v>140.8</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="K31">
         <v>843.55</v>
@@ -1775,13 +1828,13 @@
         <v>1481</v>
       </c>
       <c r="M31">
-        <v>21.007</v>
+        <v>21.007000000000001</v>
       </c>
       <c r="N31">
         <v>564.75</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1801,16 +1854,16 @@
         <v>106.02</v>
       </c>
       <c r="G32">
-        <v>157.925</v>
+        <v>157.92500000000001</v>
       </c>
       <c r="H32">
         <v>41.51</v>
       </c>
       <c r="I32">
-        <v>3.841</v>
+        <v>3.8410000000000002</v>
       </c>
       <c r="J32">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="K32">
         <v>874.65</v>
@@ -1819,13 +1872,13 @@
         <v>1465.7</v>
       </c>
       <c r="M32">
-        <v>20.373</v>
+        <v>20.373000000000001</v>
       </c>
       <c r="N32">
         <v>530.25</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1833,7 +1886,7 @@
         <v>41882</v>
       </c>
       <c r="C33">
-        <v>95.95999999999999</v>
+        <v>95.96</v>
       </c>
       <c r="D33">
         <v>359</v>
@@ -1851,10 +1904,10 @@
         <v>51.1</v>
       </c>
       <c r="I33">
-        <v>4.065</v>
+        <v>4.0650000000000004</v>
       </c>
       <c r="J33">
-        <v>148.55</v>
+        <v>148.55000000000001</v>
       </c>
       <c r="K33">
         <v>908.65</v>
@@ -1869,7 +1922,7 @@
         <v>550.25</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1889,13 +1942,13 @@
         <v>94.67</v>
       </c>
       <c r="G34">
-        <v>160.45</v>
+        <v>160.44999999999999</v>
       </c>
       <c r="H34">
         <v>55.79</v>
       </c>
       <c r="I34">
-        <v>4.121</v>
+        <v>4.1210000000000004</v>
       </c>
       <c r="J34">
         <v>144.75</v>
@@ -1913,7 +1966,7 @@
         <v>477.75</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1921,13 +1974,13 @@
         <v>41943</v>
       </c>
       <c r="C35">
-        <v>80.54000000000001</v>
+        <v>80.540000000000006</v>
       </c>
       <c r="D35">
         <v>376.75</v>
       </c>
       <c r="E35">
-        <v>1171.1</v>
+        <v>1171.0999999999999</v>
       </c>
       <c r="F35">
         <v>85.86</v>
@@ -1939,7 +1992,7 @@
         <v>54.07</v>
       </c>
       <c r="I35">
-        <v>3.873</v>
+        <v>3.8730000000000002</v>
       </c>
       <c r="J35">
         <v>133.65</v>
@@ -1951,13 +2004,13 @@
         <v>1236.2</v>
       </c>
       <c r="M35">
-        <v>16.077</v>
+        <v>16.077000000000002</v>
       </c>
       <c r="N35">
         <v>532.5</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1965,7 +2018,7 @@
         <v>41973</v>
       </c>
       <c r="C36">
-        <v>66.15000000000001</v>
+        <v>66.150000000000006</v>
       </c>
       <c r="D36">
         <v>375.75</v>
@@ -1974,7 +2027,7 @@
         <v>1175.2</v>
       </c>
       <c r="F36">
-        <v>70.15000000000001</v>
+        <v>70.150000000000006</v>
       </c>
       <c r="G36">
         <v>168.875</v>
@@ -1983,7 +2036,7 @@
         <v>58.27</v>
       </c>
       <c r="I36">
-        <v>4.088</v>
+        <v>4.0880000000000001</v>
       </c>
       <c r="J36">
         <v>148.85</v>
@@ -1992,16 +2045,16 @@
         <v>812.4</v>
       </c>
       <c r="L36">
-        <v>1210.4</v>
+        <v>1210.4000000000001</v>
       </c>
       <c r="M36">
-        <v>15.489</v>
+        <v>15.489000000000001</v>
       </c>
       <c r="N36">
         <v>577.25</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2015,7 +2068,7 @@
         <v>397</v>
       </c>
       <c r="E37">
-        <v>1183.9</v>
+        <v>1183.9000000000001</v>
       </c>
       <c r="F37">
         <v>57.33</v>
@@ -2027,16 +2080,16 @@
         <v>49.81</v>
       </c>
       <c r="I37">
-        <v>2.889</v>
+        <v>2.8889999999999998</v>
       </c>
       <c r="J37">
-        <v>140.05</v>
+        <v>140.05000000000001</v>
       </c>
       <c r="K37">
         <v>798.4</v>
       </c>
       <c r="L37">
-        <v>1208.9</v>
+        <v>1208.9000000000001</v>
       </c>
       <c r="M37">
         <v>15.565</v>
@@ -2045,7 +2098,7 @@
         <v>589.75</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2071,7 +2124,7 @@
         <v>45.86</v>
       </c>
       <c r="I38">
-        <v>2.691</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="J38">
         <v>140</v>
@@ -2089,7 +2142,7 @@
         <v>502.75</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2103,7 +2156,7 @@
         <v>384.5</v>
       </c>
       <c r="E39">
-        <v>1212.6</v>
+        <v>1212.5999999999999</v>
       </c>
       <c r="F39">
         <v>62.58</v>
@@ -2127,13 +2180,13 @@
         <v>1186.7</v>
       </c>
       <c r="M39">
-        <v>16.513</v>
+        <v>16.513000000000002</v>
       </c>
       <c r="N39">
         <v>517.5</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2147,13 +2200,13 @@
         <v>376.25</v>
       </c>
       <c r="E40">
-        <v>1183.1</v>
+        <v>1183.0999999999999</v>
       </c>
       <c r="F40">
         <v>55.11</v>
       </c>
       <c r="G40">
-        <v>161.325</v>
+        <v>161.32499999999999</v>
       </c>
       <c r="H40">
         <v>45.89</v>
@@ -2168,7 +2221,7 @@
         <v>735</v>
       </c>
       <c r="L40">
-        <v>1142.6</v>
+        <v>1142.5999999999999</v>
       </c>
       <c r="M40">
         <v>16.581</v>
@@ -2177,7 +2230,7 @@
         <v>511.75</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2191,7 +2244,7 @@
         <v>362.5</v>
       </c>
       <c r="E41">
-        <v>1182.4</v>
+        <v>1182.4000000000001</v>
       </c>
       <c r="F41">
         <v>66.78</v>
@@ -2203,7 +2256,7 @@
         <v>41.94</v>
       </c>
       <c r="I41">
-        <v>2.751</v>
+        <v>2.7509999999999999</v>
       </c>
       <c r="J41">
         <v>109.4</v>
@@ -2212,16 +2265,16 @@
         <v>776.5</v>
       </c>
       <c r="L41">
-        <v>1139.9</v>
+        <v>1139.9000000000001</v>
       </c>
       <c r="M41">
-        <v>16.124</v>
+        <v>16.123999999999999</v>
       </c>
       <c r="N41">
         <v>467</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2235,19 +2288,19 @@
         <v>351.5</v>
       </c>
       <c r="E42">
-        <v>1189.4</v>
+        <v>1189.4000000000001</v>
       </c>
       <c r="F42">
         <v>65.56</v>
       </c>
       <c r="G42">
-        <v>152.325</v>
+        <v>152.32499999999999</v>
       </c>
       <c r="H42">
         <v>41.89</v>
       </c>
       <c r="I42">
-        <v>2.642</v>
+        <v>2.6419999999999999</v>
       </c>
       <c r="J42">
         <v>114.25</v>
@@ -2259,13 +2312,13 @@
         <v>1111</v>
       </c>
       <c r="M42">
-        <v>16.684</v>
+        <v>16.684000000000001</v>
       </c>
       <c r="N42">
         <v>477</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2291,7 +2344,7 @@
         <v>42.13</v>
       </c>
       <c r="I43">
-        <v>2.832</v>
+        <v>2.8319999999999999</v>
       </c>
       <c r="J43">
         <v>114.9</v>
@@ -2300,7 +2353,7 @@
         <v>671.65</v>
       </c>
       <c r="L43">
-        <v>1078.6</v>
+        <v>1078.5999999999999</v>
       </c>
       <c r="M43">
         <v>15.551</v>
@@ -2309,7 +2362,7 @@
         <v>614.75</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2323,19 +2376,19 @@
         <v>371</v>
       </c>
       <c r="E44">
-        <v>1094.9</v>
+        <v>1094.9000000000001</v>
       </c>
       <c r="F44">
         <v>52.21</v>
       </c>
       <c r="G44">
-        <v>145.7</v>
+        <v>145.69999999999999</v>
       </c>
       <c r="H44">
         <v>42.35</v>
       </c>
       <c r="I44">
-        <v>2.716</v>
+        <v>2.7160000000000002</v>
       </c>
       <c r="J44">
         <v>123.6</v>
@@ -2353,7 +2406,7 @@
         <v>499.25</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2367,7 +2420,7 @@
         <v>363.75</v>
       </c>
       <c r="E45">
-        <v>1131.6</v>
+        <v>1131.5999999999999</v>
       </c>
       <c r="F45">
         <v>54.15</v>
@@ -2376,16 +2429,16 @@
         <v>145.5</v>
       </c>
       <c r="H45">
-        <v>40.88</v>
+        <v>40.880000000000003</v>
       </c>
       <c r="I45">
-        <v>2.689</v>
+        <v>2.6890000000000001</v>
       </c>
       <c r="J45">
         <v>129.6</v>
       </c>
       <c r="K45">
-        <v>601.55</v>
+        <v>601.54999999999995</v>
       </c>
       <c r="L45">
         <v>1010.1</v>
@@ -2397,7 +2450,7 @@
         <v>482.5</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2441,7 +2494,7 @@
         <v>512.75</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2464,10 +2517,10 @@
         <v>139.25</v>
       </c>
       <c r="H47">
-        <v>39.45</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="I47">
-        <v>2.321</v>
+        <v>2.3210000000000002</v>
       </c>
       <c r="J47">
         <v>134.65</v>
@@ -2479,13 +2532,13 @@
         <v>988.6</v>
       </c>
       <c r="M47">
-        <v>15.566</v>
+        <v>15.566000000000001</v>
       </c>
       <c r="N47">
         <v>522</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2505,19 +2558,19 @@
         <v>44.61</v>
       </c>
       <c r="G48">
-        <v>130.05</v>
+        <v>130.05000000000001</v>
       </c>
       <c r="H48">
         <v>38.65</v>
       </c>
       <c r="I48">
-        <v>2.235</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="J48">
         <v>141.75</v>
       </c>
       <c r="K48">
-        <v>541.95</v>
+        <v>541.95000000000005</v>
       </c>
       <c r="L48">
         <v>832.3</v>
@@ -2529,7 +2582,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2549,19 +2602,19 @@
         <v>37.28</v>
       </c>
       <c r="G49">
-        <v>135.8</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="H49">
-        <v>33.13</v>
+        <v>33.130000000000003</v>
       </c>
       <c r="I49">
-        <v>2.337</v>
+        <v>2.3370000000000002</v>
       </c>
       <c r="J49">
         <v>140</v>
       </c>
       <c r="K49">
-        <v>560.8</v>
+        <v>560.79999999999995</v>
       </c>
       <c r="L49">
         <v>891.7</v>
@@ -2573,7 +2626,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2581,19 +2634,19 @@
         <v>42400</v>
       </c>
       <c r="C50">
-        <v>33.62</v>
+        <v>33.619999999999997</v>
       </c>
       <c r="D50">
         <v>372</v>
       </c>
       <c r="E50">
-        <v>1116.4</v>
+        <v>1116.4000000000001</v>
       </c>
       <c r="F50">
         <v>34.74</v>
       </c>
       <c r="G50">
-        <v>135.3</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="H50">
         <v>30.59</v>
@@ -2611,13 +2664,13 @@
         <v>872.3</v>
       </c>
       <c r="M50">
-        <v>14.229</v>
+        <v>14.228999999999999</v>
       </c>
       <c r="N50">
         <v>479.25</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2631,7 +2684,7 @@
         <v>353.5</v>
       </c>
       <c r="E51">
-        <v>1233.9</v>
+        <v>1233.9000000000001</v>
       </c>
       <c r="F51">
         <v>35.97</v>
@@ -2643,7 +2696,7 @@
         <v>29.34</v>
       </c>
       <c r="I51">
-        <v>1.711</v>
+        <v>1.7110000000000001</v>
       </c>
       <c r="J51">
         <v>121.4</v>
@@ -2655,13 +2708,13 @@
         <v>933.7</v>
       </c>
       <c r="M51">
-        <v>14.896</v>
+        <v>14.896000000000001</v>
       </c>
       <c r="N51">
         <v>445</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2669,7 +2722,7 @@
         <v>42460</v>
       </c>
       <c r="C52">
-        <v>38.34</v>
+        <v>38.340000000000003</v>
       </c>
       <c r="D52">
         <v>351.5</v>
@@ -2681,19 +2734,19 @@
         <v>39.6</v>
       </c>
       <c r="G52">
-        <v>132.925</v>
+        <v>132.92500000000001</v>
       </c>
       <c r="H52">
         <v>28.02</v>
       </c>
       <c r="I52">
-        <v>1.959</v>
+        <v>1.9590000000000001</v>
       </c>
       <c r="J52">
-        <v>147.2</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="K52">
-        <v>563.05</v>
+        <v>563.04999999999995</v>
       </c>
       <c r="L52">
         <v>976.6</v>
@@ -2705,7 +2758,7 @@
         <v>473.5</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2731,7 +2784,7 @@
         <v>28.61</v>
       </c>
       <c r="I53">
-        <v>2.178</v>
+        <v>2.1779999999999999</v>
       </c>
       <c r="J53">
         <v>124.55</v>
@@ -2740,16 +2793,16 @@
         <v>627.9</v>
       </c>
       <c r="L53">
-        <v>1077.9</v>
+        <v>1077.9000000000001</v>
       </c>
       <c r="M53">
-        <v>17.789</v>
+        <v>17.789000000000001</v>
       </c>
       <c r="N53">
         <v>478</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2772,13 +2825,13 @@
         <v>121.1</v>
       </c>
       <c r="H54">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="I54">
-        <v>2.288</v>
+        <v>2.2879999999999998</v>
       </c>
       <c r="J54">
-        <v>152.55</v>
+        <v>152.55000000000001</v>
       </c>
       <c r="K54">
         <v>547.75</v>
@@ -2793,7 +2846,7 @@
         <v>464.5</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2819,7 +2872,7 @@
         <v>34.71</v>
       </c>
       <c r="I55">
-        <v>2.924</v>
+        <v>2.9239999999999999</v>
       </c>
       <c r="J55">
         <v>177.15</v>
@@ -2831,13 +2884,13 @@
         <v>1021.5</v>
       </c>
       <c r="M55">
-        <v>18.582</v>
+        <v>18.582000000000001</v>
       </c>
       <c r="N55">
         <v>431.25</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2860,10 +2913,10 @@
         <v>113.075</v>
       </c>
       <c r="H56">
-        <v>36.62</v>
+        <v>36.619999999999997</v>
       </c>
       <c r="I56">
-        <v>2.876</v>
+        <v>2.8759999999999999</v>
       </c>
       <c r="J56">
         <v>174.65</v>
@@ -2875,13 +2928,13 @@
         <v>1147.3</v>
       </c>
       <c r="M56">
-        <v>20.312</v>
+        <v>20.312000000000001</v>
       </c>
       <c r="N56">
         <v>407.75</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2895,7 +2948,7 @@
         <v>301.5</v>
       </c>
       <c r="E57">
-        <v>1306.9</v>
+        <v>1306.9000000000001</v>
       </c>
       <c r="F57">
         <v>47.04</v>
@@ -2904,7 +2957,7 @@
         <v>111.95</v>
       </c>
       <c r="H57">
-        <v>32.05</v>
+        <v>32.049999999999997</v>
       </c>
       <c r="I57">
         <v>2.887</v>
@@ -2925,7 +2978,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2945,13 +2998,13 @@
         <v>49.06</v>
       </c>
       <c r="G58">
-        <v>98.90000000000001</v>
+        <v>98.9</v>
       </c>
       <c r="H58">
         <v>41</v>
       </c>
       <c r="I58">
-        <v>2.906</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="J58">
         <v>205</v>
@@ -2960,16 +3013,16 @@
         <v>720.5</v>
       </c>
       <c r="L58">
-        <v>1028.6</v>
+        <v>1028.5999999999999</v>
       </c>
       <c r="M58">
-        <v>19.139</v>
+        <v>19.138999999999999</v>
       </c>
       <c r="N58">
         <v>402</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2995,13 +3048,13 @@
         <v>50.92</v>
       </c>
       <c r="I59">
-        <v>3.026</v>
+        <v>3.0259999999999998</v>
       </c>
       <c r="J59">
         <v>221.95</v>
       </c>
       <c r="K59">
-        <v>617.45</v>
+        <v>617.45000000000005</v>
       </c>
       <c r="L59">
         <v>975.8</v>
@@ -3013,7 +3066,7 @@
         <v>416.25</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3039,7 +3092,7 @@
         <v>49.5</v>
       </c>
       <c r="I60">
-        <v>3.352</v>
+        <v>3.3519999999999999</v>
       </c>
       <c r="J60">
         <v>217.6</v>
@@ -3051,13 +3104,13 @@
         <v>908.1</v>
       </c>
       <c r="M60">
-        <v>16.406</v>
+        <v>16.405999999999999</v>
       </c>
       <c r="N60">
         <v>380.5</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3083,7 +3136,7 @@
         <v>53.63</v>
       </c>
       <c r="I61">
-        <v>3.724</v>
+        <v>3.7240000000000002</v>
       </c>
       <c r="J61">
         <v>198.1</v>
@@ -3101,7 +3154,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3115,7 +3168,7 @@
         <v>359.75</v>
       </c>
       <c r="E62">
-        <v>1208.6</v>
+        <v>1208.5999999999999</v>
       </c>
       <c r="F62">
         <v>55.7</v>
@@ -3145,7 +3198,7 @@
         <v>420.75</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3159,7 +3212,7 @@
         <v>366.75</v>
       </c>
       <c r="E63">
-        <v>1252.6</v>
+        <v>1252.5999999999999</v>
       </c>
       <c r="F63">
         <v>55.59</v>
@@ -3183,13 +3236,13 @@
         <v>1029.5</v>
       </c>
       <c r="M63">
-        <v>18.42</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="N63">
         <v>424.75</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3227,13 +3280,13 @@
         <v>948.2</v>
       </c>
       <c r="M64">
-        <v>18.235</v>
+        <v>18.234999999999999</v>
       </c>
       <c r="N64">
         <v>426.5</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3247,7 +3300,7 @@
         <v>358</v>
       </c>
       <c r="E65">
-        <v>1266.1</v>
+        <v>1266.0999999999999</v>
       </c>
       <c r="F65">
         <v>51.73</v>
@@ -3256,10 +3309,10 @@
         <v>138</v>
       </c>
       <c r="H65">
-        <v>38.16</v>
+        <v>38.159999999999997</v>
       </c>
       <c r="I65">
-        <v>3.276</v>
+        <v>3.2759999999999998</v>
       </c>
       <c r="J65">
         <v>158.1</v>
@@ -3271,13 +3324,13 @@
         <v>946.3</v>
       </c>
       <c r="M65">
-        <v>17.191</v>
+        <v>17.190999999999999</v>
       </c>
       <c r="N65">
         <v>418.5</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3303,10 +3356,10 @@
         <v>37.1</v>
       </c>
       <c r="I66">
-        <v>3.071</v>
+        <v>3.0710000000000002</v>
       </c>
       <c r="J66">
-        <v>133.55</v>
+        <v>133.55000000000001</v>
       </c>
       <c r="K66">
         <v>819.85</v>
@@ -3315,13 +3368,13 @@
         <v>948.5</v>
       </c>
       <c r="M66">
-        <v>17.368</v>
+        <v>17.367999999999999</v>
       </c>
       <c r="N66">
         <v>429.25</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3344,10 +3397,10 @@
         <v>119.1</v>
       </c>
       <c r="H67">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I67">
-        <v>3.035</v>
+        <v>3.0350000000000001</v>
       </c>
       <c r="J67">
         <v>129.85</v>
@@ -3359,13 +3412,13 @@
         <v>923.7</v>
       </c>
       <c r="M67">
-        <v>16.568</v>
+        <v>16.568000000000001</v>
       </c>
       <c r="N67">
         <v>511</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3379,7 +3432,7 @@
         <v>370.75</v>
       </c>
       <c r="E68">
-        <v>1266.6</v>
+        <v>1266.5999999999999</v>
       </c>
       <c r="F68">
         <v>52.65</v>
@@ -3409,7 +3462,7 @@
         <v>474.5</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3429,7 +3482,7 @@
         <v>52.38</v>
       </c>
       <c r="G69">
-        <v>104.525</v>
+        <v>104.52500000000001</v>
       </c>
       <c r="H69">
         <v>44.91</v>
@@ -3453,7 +3506,7 @@
         <v>410.25</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3479,7 +3532,7 @@
         <v>47.32</v>
       </c>
       <c r="I70">
-        <v>3.007</v>
+        <v>3.0070000000000001</v>
       </c>
       <c r="J70">
         <v>148.35</v>
@@ -3491,13 +3544,13 @@
         <v>910.3</v>
       </c>
       <c r="M70">
-        <v>16.607</v>
+        <v>16.606999999999999</v>
       </c>
       <c r="N70">
         <v>448.25</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3523,7 +3576,7 @@
         <v>50.38</v>
       </c>
       <c r="I71">
-        <v>2.896</v>
+        <v>2.8959999999999999</v>
       </c>
       <c r="J71">
         <v>156.25</v>
@@ -3541,7 +3594,7 @@
         <v>418.5</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3567,7 +3620,7 @@
         <v>56.7</v>
       </c>
       <c r="I72">
-        <v>3.025</v>
+        <v>3.0249999999999999</v>
       </c>
       <c r="J72">
         <v>160.1</v>
@@ -3579,13 +3632,13 @@
         <v>941.3</v>
       </c>
       <c r="M72">
-        <v>16.382</v>
+        <v>16.382000000000001</v>
       </c>
       <c r="N72">
         <v>409.25</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3611,7 +3664,7 @@
         <v>56.43</v>
       </c>
       <c r="I73">
-        <v>2.953</v>
+        <v>2.9529999999999998</v>
       </c>
       <c r="J73">
         <v>136</v>
@@ -3623,13 +3676,13 @@
         <v>934.2</v>
       </c>
       <c r="M73">
-        <v>17.06</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="N73">
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3655,10 +3708,10 @@
         <v>48.95</v>
       </c>
       <c r="I74">
-        <v>2.995</v>
+        <v>2.9950000000000001</v>
       </c>
       <c r="J74">
-        <v>148.7</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="K74">
         <v>1027.5</v>
@@ -3667,13 +3720,13 @@
         <v>1001.3</v>
       </c>
       <c r="M74">
-        <v>17.204</v>
+        <v>17.204000000000001</v>
       </c>
       <c r="N74">
         <v>451.75</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3699,7 +3752,7 @@
         <v>46.67</v>
       </c>
       <c r="I75">
-        <v>2.667</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="J75">
         <v>143.4</v>
@@ -3711,13 +3764,13 @@
         <v>986.6</v>
       </c>
       <c r="M75">
-        <v>16.324</v>
+        <v>16.324000000000002</v>
       </c>
       <c r="N75">
         <v>484.5</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3743,7 +3796,7 @@
         <v>47.36</v>
       </c>
       <c r="I76">
-        <v>2.733</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="J76">
         <v>141.1</v>
@@ -3755,13 +3808,13 @@
         <v>927.3</v>
       </c>
       <c r="M76">
-        <v>16.223</v>
+        <v>16.222999999999999</v>
       </c>
       <c r="N76">
         <v>451</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3769,7 +3822,7 @@
         <v>43220</v>
       </c>
       <c r="C77">
-        <v>68.56999999999999</v>
+        <v>68.569999999999993</v>
       </c>
       <c r="D77">
         <v>392.5</v>
@@ -3787,10 +3840,10 @@
         <v>53.09</v>
       </c>
       <c r="I77">
-        <v>2.763</v>
+        <v>2.7629999999999999</v>
       </c>
       <c r="J77">
-        <v>154.95</v>
+        <v>154.94999999999999</v>
       </c>
       <c r="K77">
         <v>962.75</v>
@@ -3799,13 +3852,13 @@
         <v>899</v>
       </c>
       <c r="M77">
-        <v>16.312</v>
+        <v>16.312000000000001</v>
       </c>
       <c r="N77">
         <v>512.5</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3813,13 +3866,13 @@
         <v>43251</v>
       </c>
       <c r="C78">
-        <v>67.04000000000001</v>
+        <v>67.040000000000006</v>
       </c>
       <c r="D78">
         <v>394</v>
       </c>
       <c r="E78">
-        <v>1300.1</v>
+        <v>1300.0999999999999</v>
       </c>
       <c r="F78">
         <v>77.59</v>
@@ -3834,7 +3887,7 @@
         <v>2.952</v>
       </c>
       <c r="J78">
-        <v>161.8</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="K78">
         <v>988.9</v>
@@ -3843,13 +3896,13 @@
         <v>908.1</v>
       </c>
       <c r="M78">
-        <v>16.402</v>
+        <v>16.402000000000001</v>
       </c>
       <c r="N78">
         <v>526.25</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3857,7 +3910,7 @@
         <v>43281</v>
       </c>
       <c r="C79">
-        <v>74.15000000000001</v>
+        <v>74.150000000000006</v>
       </c>
       <c r="D79">
         <v>350.25</v>
@@ -3875,10 +3928,10 @@
         <v>55.24</v>
       </c>
       <c r="I79">
-        <v>2.924</v>
+        <v>2.9239999999999999</v>
       </c>
       <c r="J79">
-        <v>159.55</v>
+        <v>159.55000000000001</v>
       </c>
       <c r="K79">
         <v>958.3</v>
@@ -3887,13 +3940,13 @@
         <v>852.4</v>
       </c>
       <c r="M79">
-        <v>16.104</v>
+        <v>16.103999999999999</v>
       </c>
       <c r="N79">
         <v>497.5</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3901,7 +3954,7 @@
         <v>43312</v>
       </c>
       <c r="C80">
-        <v>68.76000000000001</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="D80">
         <v>372.25</v>
@@ -3937,7 +3990,7 @@
         <v>553.75</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3960,10 +4013,10 @@
         <v>106.8</v>
       </c>
       <c r="H81">
-        <v>67.79000000000001</v>
+        <v>67.790000000000006</v>
       </c>
       <c r="I81">
-        <v>2.916</v>
+        <v>2.9159999999999999</v>
       </c>
       <c r="J81">
         <v>157.85</v>
@@ -3975,13 +4028,13 @@
         <v>785.9</v>
       </c>
       <c r="M81">
-        <v>14.438</v>
+        <v>14.438000000000001</v>
       </c>
       <c r="N81">
         <v>518.5</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4019,13 +4072,13 @@
         <v>818.7</v>
       </c>
       <c r="M82">
-        <v>14.623</v>
+        <v>14.622999999999999</v>
       </c>
       <c r="N82">
         <v>509</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4048,28 +4101,28 @@
         <v>115.85</v>
       </c>
       <c r="H83">
-        <v>68.18000000000001</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="I83">
-        <v>3.261</v>
+        <v>3.2610000000000001</v>
       </c>
       <c r="J83">
-        <v>135.7</v>
+        <v>135.69999999999999</v>
       </c>
       <c r="K83">
-        <v>1085.1</v>
+        <v>1085.0999999999999</v>
       </c>
       <c r="L83">
         <v>839.4</v>
       </c>
       <c r="M83">
-        <v>14.229</v>
+        <v>14.228999999999999</v>
       </c>
       <c r="N83">
         <v>500.5</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4092,28 +4145,28 @@
         <v>116.925</v>
       </c>
       <c r="H84">
-        <v>67.54000000000001</v>
+        <v>67.540000000000006</v>
       </c>
       <c r="I84">
-        <v>4.612</v>
+        <v>4.6120000000000001</v>
       </c>
       <c r="J84">
-        <v>143.95</v>
+        <v>143.94999999999999</v>
       </c>
       <c r="K84">
-        <v>1168.6</v>
+        <v>1168.5999999999999</v>
       </c>
       <c r="L84">
         <v>798</v>
       </c>
       <c r="M84">
-        <v>14.094</v>
+        <v>14.093999999999999</v>
       </c>
       <c r="N84">
         <v>515.75</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4145,7 +4198,7 @@
         <v>125.15</v>
       </c>
       <c r="K85">
-        <v>1253.9</v>
+        <v>1253.9000000000001</v>
       </c>
       <c r="L85">
         <v>795.9</v>
@@ -4157,7 +4210,7 @@
         <v>503.25</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4183,7 +4236,7 @@
         <v>51.52</v>
       </c>
       <c r="I86">
-        <v>2.814</v>
+        <v>2.8140000000000001</v>
       </c>
       <c r="J86">
         <v>120.1</v>
@@ -4195,13 +4248,13 @@
         <v>820.5</v>
       </c>
       <c r="M86">
-        <v>16.022</v>
+        <v>16.021999999999998</v>
       </c>
       <c r="N86">
         <v>516.5</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4221,13 +4274,13 @@
         <v>66.03</v>
       </c>
       <c r="G87">
-        <v>129.95</v>
+        <v>129.94999999999999</v>
       </c>
       <c r="H87">
         <v>44.11</v>
       </c>
       <c r="I87">
-        <v>2.812</v>
+        <v>2.8119999999999998</v>
       </c>
       <c r="J87">
         <v>114.3</v>
@@ -4245,7 +4298,7 @@
         <v>452.5</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4271,7 +4324,7 @@
         <v>34.61</v>
       </c>
       <c r="I88">
-        <v>2.662</v>
+        <v>2.6619999999999999</v>
       </c>
       <c r="J88">
         <v>119.9</v>
@@ -4289,7 +4342,7 @@
         <v>457.75</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4312,10 +4365,10 @@
         <v>123.75</v>
       </c>
       <c r="H89">
-        <v>33.66</v>
+        <v>33.659999999999997</v>
       </c>
       <c r="I89">
-        <v>2.575</v>
+        <v>2.5750000000000002</v>
       </c>
       <c r="J89">
         <v>94.8</v>
@@ -4333,7 +4386,7 @@
         <v>418.5</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4350,16 +4403,16 @@
         <v>1305.8</v>
       </c>
       <c r="F90">
-        <v>64.48999999999999</v>
+        <v>64.489999999999995</v>
       </c>
       <c r="G90">
-        <v>108.475</v>
+        <v>108.47499999999999</v>
       </c>
       <c r="H90">
         <v>27.57</v>
       </c>
       <c r="I90">
-        <v>2.454</v>
+        <v>2.4540000000000002</v>
       </c>
       <c r="J90">
         <v>108.4</v>
@@ -4377,7 +4430,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4403,7 +4456,7 @@
         <v>25.65</v>
       </c>
       <c r="I91">
-        <v>2.308</v>
+        <v>2.3079999999999998</v>
       </c>
       <c r="J91">
         <v>100.95</v>
@@ -4421,7 +4474,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4447,7 +4500,7 @@
         <v>29.76</v>
       </c>
       <c r="I92">
-        <v>2.233</v>
+        <v>2.2330000000000001</v>
       </c>
       <c r="J92">
         <v>103.45</v>
@@ -4465,7 +4518,7 @@
         <v>487.25</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4491,7 +4544,7 @@
         <v>33.03</v>
       </c>
       <c r="I93">
-        <v>2.285</v>
+        <v>2.2850000000000001</v>
       </c>
       <c r="J93">
         <v>100.5</v>
@@ -4503,13 +4556,13 @@
         <v>929.6</v>
       </c>
       <c r="M93">
-        <v>18.185</v>
+        <v>18.184999999999999</v>
       </c>
       <c r="N93">
         <v>451.25</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4553,7 +4606,7 @@
         <v>495.75</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4582,7 +4635,7 @@
         <v>2.633</v>
       </c>
       <c r="J95">
-        <v>95.84999999999999</v>
+        <v>95.85</v>
       </c>
       <c r="K95">
         <v>1758.1</v>
@@ -4591,13 +4644,13 @@
         <v>930</v>
       </c>
       <c r="M95">
-        <v>18.014</v>
+        <v>18.013999999999999</v>
       </c>
       <c r="N95">
         <v>508.75</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4623,10 +4676,10 @@
         <v>42.76</v>
       </c>
       <c r="I96">
-        <v>2.281</v>
+        <v>2.2810000000000001</v>
       </c>
       <c r="J96">
-        <v>98.59999999999999</v>
+        <v>98.6</v>
       </c>
       <c r="K96">
         <v>1815.6</v>
@@ -4635,13 +4688,13 @@
         <v>897.9</v>
       </c>
       <c r="M96">
-        <v>16.969</v>
+        <v>16.969000000000001</v>
       </c>
       <c r="N96">
         <v>547.5</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4667,7 +4720,7 @@
         <v>31.07</v>
       </c>
       <c r="I97">
-        <v>2.189</v>
+        <v>2.1890000000000001</v>
       </c>
       <c r="J97">
         <v>97.2</v>
@@ -4679,13 +4732,13 @@
         <v>971.4</v>
       </c>
       <c r="M97">
-        <v>17.828</v>
+        <v>17.827999999999999</v>
       </c>
       <c r="N97">
         <v>558.75</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4723,13 +4776,13 @@
         <v>959.2</v>
       </c>
       <c r="M98">
-        <v>17.972</v>
+        <v>17.972000000000001</v>
       </c>
       <c r="N98">
         <v>553.75</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4755,13 +4808,13 @@
         <v>21.7</v>
       </c>
       <c r="I99">
-        <v>1.684</v>
+        <v>1.6839999999999999</v>
       </c>
       <c r="J99">
         <v>101.85</v>
       </c>
       <c r="K99">
-        <v>2508.8</v>
+        <v>2508.8000000000002</v>
       </c>
       <c r="L99">
         <v>862.8</v>
@@ -4773,7 +4826,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4796,7 +4849,7 @@
         <v>101.825</v>
       </c>
       <c r="H100">
-        <v>16.33</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="I100">
         <v>1.64</v>
@@ -4805,19 +4858,19 @@
         <v>120.2</v>
       </c>
       <c r="K100">
-        <v>2333.3</v>
+        <v>2333.3000000000002</v>
       </c>
       <c r="L100">
         <v>724.4</v>
       </c>
       <c r="M100">
-        <v>14.098</v>
+        <v>14.098000000000001</v>
       </c>
       <c r="N100">
         <v>568.75</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4843,7 +4896,7 @@
         <v>13.87</v>
       </c>
       <c r="I101">
-        <v>1.949</v>
+        <v>1.9490000000000001</v>
       </c>
       <c r="J101">
         <v>108.3</v>
@@ -4861,7 +4914,7 @@
         <v>529.75</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4881,10 +4934,10 @@
         <v>35.33</v>
       </c>
       <c r="G102">
-        <v>99.72499999999999</v>
+        <v>99.724999999999994</v>
       </c>
       <c r="H102">
-        <v>9.630000000000001</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="I102">
         <v>1.849</v>
@@ -4899,13 +4952,13 @@
         <v>870.5</v>
       </c>
       <c r="M102">
-        <v>18.44</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="N102">
         <v>520.75</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4913,7 +4966,7 @@
         <v>44012</v>
       </c>
       <c r="C103">
-        <v>39.27</v>
+        <v>39.270000000000003</v>
       </c>
       <c r="D103">
         <v>338.5</v>
@@ -4925,13 +4978,13 @@
         <v>41.15</v>
       </c>
       <c r="G103">
-        <v>91.65000000000001</v>
+        <v>91.65</v>
       </c>
       <c r="H103">
         <v>16.22</v>
       </c>
       <c r="I103">
-        <v>1.751</v>
+        <v>1.7509999999999999</v>
       </c>
       <c r="J103">
         <v>127.3</v>
@@ -4949,7 +5002,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4957,7 +5010,7 @@
         <v>44043</v>
       </c>
       <c r="C104">
-        <v>40.27</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="D104">
         <v>316</v>
@@ -4975,13 +5028,13 @@
         <v>15.64</v>
       </c>
       <c r="I104">
-        <v>1.799</v>
+        <v>1.7989999999999999</v>
       </c>
       <c r="J104">
         <v>121.75</v>
       </c>
       <c r="K104">
-        <v>2135.3</v>
+        <v>2135.3000000000002</v>
       </c>
       <c r="L104">
         <v>912.2</v>
@@ -4993,7 +5046,7 @@
         <v>531.25</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5031,13 +5084,13 @@
         <v>935.7</v>
       </c>
       <c r="M105">
-        <v>28.437</v>
+        <v>28.437000000000001</v>
       </c>
       <c r="N105">
         <v>544.25</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5054,7 +5107,7 @@
         <v>1887.5</v>
       </c>
       <c r="F106">
-        <v>40.95</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="G106">
         <v>108.55</v>
@@ -5063,13 +5116,13 @@
         <v>37</v>
       </c>
       <c r="I106">
-        <v>2.527</v>
+        <v>2.5270000000000001</v>
       </c>
       <c r="J106">
         <v>113.7</v>
       </c>
       <c r="K106">
-        <v>2321.3</v>
+        <v>2321.3000000000002</v>
       </c>
       <c r="L106">
         <v>901</v>
@@ -5081,7 +5134,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5101,31 +5154,31 @@
         <v>37.46</v>
       </c>
       <c r="G107">
-        <v>105.975</v>
+        <v>105.97499999999999</v>
       </c>
       <c r="H107">
         <v>41.5</v>
       </c>
       <c r="I107">
-        <v>3.354</v>
+        <v>3.3540000000000001</v>
       </c>
       <c r="J107">
         <v>117.95</v>
       </c>
       <c r="K107">
-        <v>2210.3</v>
+        <v>2210.3000000000002</v>
       </c>
       <c r="L107">
         <v>844.6</v>
       </c>
       <c r="M107">
-        <v>23.617</v>
+        <v>23.617000000000001</v>
       </c>
       <c r="N107">
         <v>598.5</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5151,25 +5204,25 @@
         <v>43.67</v>
       </c>
       <c r="I108">
-        <v>2.882</v>
+        <v>2.8820000000000001</v>
       </c>
       <c r="J108">
         <v>128.75</v>
       </c>
       <c r="K108">
-        <v>2392.8</v>
+        <v>2392.8000000000002</v>
       </c>
       <c r="L108">
         <v>964.1</v>
       </c>
       <c r="M108">
-        <v>22.534</v>
+        <v>22.533999999999999</v>
       </c>
       <c r="N108">
         <v>580.25</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5195,7 +5248,7 @@
         <v>56.4</v>
       </c>
       <c r="I109">
-        <v>2.539</v>
+        <v>2.5390000000000001</v>
       </c>
       <c r="J109">
         <v>123.25</v>
@@ -5204,16 +5257,16 @@
         <v>2448.5</v>
       </c>
       <c r="L109">
-        <v>1075.4</v>
+        <v>1075.4000000000001</v>
       </c>
       <c r="M109">
-        <v>26.332</v>
+        <v>26.332000000000001</v>
       </c>
       <c r="N109">
         <v>640.5</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5239,7 +5292,7 @@
         <v>53.15</v>
       </c>
       <c r="I110">
-        <v>2.564</v>
+        <v>2.5640000000000001</v>
       </c>
       <c r="J110">
         <v>110.6</v>
@@ -5257,7 +5310,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5283,7 +5336,7 @@
         <v>39.79</v>
       </c>
       <c r="I111">
-        <v>2.771</v>
+        <v>2.7709999999999999</v>
       </c>
       <c r="J111">
         <v>106.75</v>
@@ -5295,13 +5348,13 @@
         <v>1183.5</v>
       </c>
       <c r="M111">
-        <v>26.402</v>
+        <v>26.402000000000001</v>
       </c>
       <c r="N111">
         <v>655</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5321,13 +5374,13 @@
         <v>63.54</v>
       </c>
       <c r="G112">
-        <v>120.975</v>
+        <v>120.97499999999999</v>
       </c>
       <c r="H112">
         <v>46.8</v>
       </c>
       <c r="I112">
-        <v>2.608</v>
+        <v>2.6080000000000001</v>
       </c>
       <c r="J112">
         <v>110.6</v>
@@ -5339,13 +5392,13 @@
         <v>1188.5</v>
       </c>
       <c r="M112">
-        <v>24.517</v>
+        <v>24.516999999999999</v>
       </c>
       <c r="N112">
         <v>618</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5383,13 +5436,13 @@
         <v>1203</v>
       </c>
       <c r="M113">
-        <v>25.853</v>
+        <v>25.853000000000002</v>
       </c>
       <c r="N113">
         <v>742.5</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5397,7 +5450,7 @@
         <v>44347</v>
       </c>
       <c r="C114">
-        <v>66.31999999999999</v>
+        <v>66.319999999999993</v>
       </c>
       <c r="D114">
         <v>656.75</v>
@@ -5406,7 +5459,7 @@
         <v>1902.5</v>
       </c>
       <c r="F114">
-        <v>69.31999999999999</v>
+        <v>69.319999999999993</v>
       </c>
       <c r="G114">
         <v>115.875</v>
@@ -5415,7 +5468,7 @@
         <v>60.68</v>
       </c>
       <c r="I114">
-        <v>2.986</v>
+        <v>2.9860000000000002</v>
       </c>
       <c r="J114">
         <v>118.65</v>
@@ -5427,13 +5480,13 @@
         <v>1180.8</v>
       </c>
       <c r="M114">
-        <v>27.993</v>
+        <v>27.992999999999999</v>
       </c>
       <c r="N114">
         <v>663.5</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5471,13 +5524,13 @@
         <v>1070.5</v>
       </c>
       <c r="M115">
-        <v>26.165</v>
+        <v>26.164999999999999</v>
       </c>
       <c r="N115">
         <v>671.5</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5503,25 +5556,25 @@
         <v>103.75</v>
       </c>
       <c r="I116">
-        <v>3.914</v>
+        <v>3.9140000000000001</v>
       </c>
       <c r="J116">
-        <v>132.95</v>
+        <v>132.94999999999999</v>
       </c>
       <c r="K116">
         <v>2655.8</v>
       </c>
       <c r="L116">
-        <v>1046.9</v>
+        <v>1046.9000000000001</v>
       </c>
       <c r="M116">
-        <v>25.528</v>
+        <v>25.527999999999999</v>
       </c>
       <c r="N116">
         <v>703.75</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5538,7 +5591,7 @@
         <v>1815</v>
       </c>
       <c r="F117">
-        <v>72.98999999999999</v>
+        <v>72.989999999999995</v>
       </c>
       <c r="G117">
         <v>118.95</v>
@@ -5547,13 +5600,13 @@
         <v>127.71</v>
       </c>
       <c r="I117">
-        <v>4.377</v>
+        <v>4.3769999999999998</v>
       </c>
       <c r="J117">
-        <v>134.55</v>
+        <v>134.55000000000001</v>
       </c>
       <c r="K117">
-        <v>2468.3</v>
+        <v>2468.3000000000002</v>
       </c>
       <c r="L117">
         <v>1013.9</v>
@@ -5565,7 +5618,7 @@
         <v>706.75</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5603,13 +5656,13 @@
         <v>960.9</v>
       </c>
       <c r="M118">
-        <v>22.021</v>
+        <v>22.021000000000001</v>
       </c>
       <c r="N118">
         <v>725.5</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5617,7 +5670,7 @@
         <v>44500</v>
       </c>
       <c r="C119">
-        <v>83.56999999999999</v>
+        <v>83.57</v>
       </c>
       <c r="D119">
         <v>568.25</v>
@@ -5635,7 +5688,7 @@
         <v>165.98</v>
       </c>
       <c r="I119">
-        <v>5.426</v>
+        <v>5.4260000000000002</v>
       </c>
       <c r="J119">
         <v>120.35</v>
@@ -5653,7 +5706,7 @@
         <v>772.75</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5661,7 +5714,7 @@
         <v>44530</v>
       </c>
       <c r="C120">
-        <v>66.18000000000001</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="D120">
         <v>567</v>
@@ -5670,7 +5723,7 @@
         <v>1773.6</v>
       </c>
       <c r="F120">
-        <v>70.56999999999999</v>
+        <v>70.569999999999993</v>
       </c>
       <c r="G120">
         <v>135.875</v>
@@ -5679,7 +5732,7 @@
         <v>238.31</v>
       </c>
       <c r="I120">
-        <v>4.567</v>
+        <v>4.5670000000000002</v>
       </c>
       <c r="J120">
         <v>122.9</v>
@@ -5691,13 +5744,13 @@
         <v>926.6</v>
       </c>
       <c r="M120">
-        <v>22.765</v>
+        <v>22.765000000000001</v>
       </c>
       <c r="N120">
         <v>773.75</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5705,7 +5758,7 @@
         <v>44561</v>
       </c>
       <c r="C121">
-        <v>75.20999999999999</v>
+        <v>75.209999999999994</v>
       </c>
       <c r="D121">
         <v>593.25</v>
@@ -5726,7 +5779,7 @@
         <v>3.73</v>
       </c>
       <c r="J121">
-        <v>146.3</v>
+        <v>146.30000000000001</v>
       </c>
       <c r="K121">
         <v>1908.1</v>
@@ -5735,7 +5788,7 @@
         <v>964.4</v>
       </c>
       <c r="M121">
-        <v>23.328</v>
+        <v>23.327999999999999</v>
       </c>
       <c r="N121">
         <v>770.75</v>
